--- a/stb.xlsx
+++ b/stb.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="stage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>User Name</t>
   </si>
   <si>
+    <t>User_fb_url</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -47,6 +55,27 @@
   </si>
   <si>
     <t>Adel Ben Ali Kmais</t>
+  </si>
+  <si>
+    <t>/ammar.laabidi.52?rc=p&amp;__tn__=R</t>
+  </si>
+  <si>
+    <t>/mstirsalahn1?rc=p&amp;__tn__=R</t>
+  </si>
+  <si>
+    <t>/mouhammedamin.touati?rc=p&amp;__tn__=R</t>
+  </si>
+  <si>
+    <t>/wejdane.jedaydie?rc=p&amp;__tn__=R</t>
+  </si>
+  <si>
+    <t>/profile.php?id=100057178865281&amp;rc=p&amp;__tn__=R</t>
+  </si>
+  <si>
+    <t>/nizar.hamdi.9?rc=p&amp;__tn__=R</t>
+  </si>
+  <si>
+    <t>/sinen.mh.33?rc=p&amp;__tn__=R</t>
   </si>
   <si>
     <t>ما هو جاى حتى واحد تهناو</t>
@@ -79,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,10 +161,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -143,11 +178,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -189,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +264,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +299,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,118 +475,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
